--- a/TDD/Login-OrangeHRM.xlsx
+++ b/TDD/Login-OrangeHRM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\katalon-project\axis\TDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\katalon-project\orangeHRM\TDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E49EBBC-42E2-41C8-8140-27EC236AF642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3830799-7A37-4F0D-8C3E-6299C09332FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C3AAFA8E-DFE7-4136-9D12-34F751D72722}"/>
+    <workbookView xWindow="5760" yWindow="3756" windowWidth="17280" windowHeight="10044" xr2:uid="{C3AAFA8E-DFE7-4136-9D12-34F751D72722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>hUKwJTbofgPU9eVlw/CnDQ==</t>
-  </si>
-  <si>
     <t>Admin123</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,19 +447,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -467,19 +467,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
